--- a/results/fullSalesApportionment.xlsx
+++ b/results/fullSalesApportionment.xlsx
@@ -1398,13 +1398,13 @@
         <v>546855484.5225763</v>
       </c>
       <c r="F2">
-        <v>272607342.9529515</v>
+        <v>263969173.7017948</v>
       </c>
       <c r="G2">
         <v>697460967.4941101</v>
       </c>
       <c r="H2">
-        <v>1516923794.969638</v>
+        <v>1508285625.718481</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1424,13 +1424,13 @@
         <v>1875522793.196862</v>
       </c>
       <c r="F3">
-        <v>951934044.3990875</v>
+        <v>922046831.3635709</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4424619583.27818</v>
+        <v>4394732370.242663</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1450,13 +1450,13 @@
         <v>719754435.9650335</v>
       </c>
       <c r="F4">
-        <v>331009345.0287296</v>
+        <v>320392730.0339864</v>
       </c>
       <c r="G4">
         <v>1601739729.788788</v>
       </c>
       <c r="H4">
-        <v>2652503510.782551</v>
+        <v>2641886895.787807</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1476,13 +1476,13 @@
         <v>990433121.5007175</v>
       </c>
       <c r="F5">
-        <v>571487495.2826937</v>
+        <v>554442326.323625</v>
       </c>
       <c r="G5">
-        <v>2464341273.134813</v>
+        <v>2272350247.502241</v>
       </c>
       <c r="H5">
-        <v>4026261889.918224</v>
+        <v>3817225695.326583</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1502,13 +1502,13 @@
         <v>159871590.2482263</v>
       </c>
       <c r="F6">
-        <v>83818658.83587572</v>
+        <v>81187062.53178465</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>465207667.435625</v>
+        <v>462576071.1315339</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1528,13 +1528,13 @@
         <v>2193393031.99074</v>
       </c>
       <c r="F7">
-        <v>1159609289.435351</v>
+        <v>1122569781.31753</v>
       </c>
       <c r="G7">
         <v>1271222270.284169</v>
       </c>
       <c r="H7">
-        <v>4624224591.71026</v>
+        <v>4587185083.59244</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1554,13 +1554,13 @@
         <v>3694693179.754481</v>
       </c>
       <c r="F8">
-        <v>1295528078.314128</v>
+        <v>1248438796.197713</v>
       </c>
       <c r="G8">
         <v>10076673318.29519</v>
       </c>
       <c r="H8">
-        <v>15066894576.3638</v>
+        <v>15019805294.24739</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1580,13 +1580,13 @@
         <v>137671865.7182727</v>
       </c>
       <c r="F9">
-        <v>62453340.18942953</v>
+        <v>60492535.97825191</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>395756143.7425144</v>
+        <v>393795339.5313368</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1606,13 +1606,13 @@
         <v>762336490.6233327</v>
       </c>
       <c r="F10">
-        <v>343639297.0533255</v>
+        <v>332831115.844449</v>
       </c>
       <c r="G10">
         <v>134589337.3166072</v>
       </c>
       <c r="H10">
-        <v>1240565124.993265</v>
+        <v>1229756943.784389</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1632,13 +1632,13 @@
         <v>16344689837.15754</v>
       </c>
       <c r="F11">
-        <v>5309784652.705359</v>
+        <v>5143077026.245483</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27373384357.37752</v>
+        <v>27206676730.91764</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1658,13 +1658,13 @@
         <v>285672653.3858668</v>
       </c>
       <c r="F12">
-        <v>153463494.5275696</v>
+        <v>148645307.6152446</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1967801385.355122</v>
+        <v>1962983198.442797</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1684,13 +1684,13 @@
         <v>250480519.973384</v>
       </c>
       <c r="F13">
-        <v>113641687.5153802</v>
+        <v>110029426.3256799</v>
       </c>
       <c r="G13">
         <v>935543848.1693642</v>
       </c>
       <c r="H13">
-        <v>1299666055.658128</v>
+        <v>1296053794.468428</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1710,13 +1710,13 @@
         <v>2956452539.013705</v>
       </c>
       <c r="F14">
-        <v>1436743723.783259</v>
+        <v>1391635277.45465</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6670572960.582646</v>
+        <v>6625464514.254038</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1736,13 +1736,13 @@
         <v>4080089293.292362</v>
       </c>
       <c r="F15">
-        <v>2246851467.174072</v>
+        <v>2176308629.82762</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13484620684.71684</v>
+        <v>13414077847.37038</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1762,13 +1762,13 @@
         <v>135391551.83756</v>
       </c>
       <c r="F16">
-        <v>63857959.57647557</v>
+        <v>61850573.38801792</v>
       </c>
       <c r="G16">
         <v>94360901.55111049</v>
       </c>
       <c r="H16">
-        <v>293610412.965146</v>
+        <v>291603026.7766884</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1788,13 +1788,13 @@
         <v>2473885730.458646</v>
       </c>
       <c r="F17">
-        <v>1651791627.209985</v>
+        <v>1599931470.990999</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5704895878.047729</v>
+        <v>5653035721.828745</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1814,13 +1814,13 @@
         <v>1106961886.664967</v>
       </c>
       <c r="F18">
-        <v>563286190.0831058</v>
+        <v>545601084.2062533</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2061602419.019617</v>
+        <v>2043917313.142765</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1840,13 +1840,13 @@
         <v>633044419.9481043</v>
       </c>
       <c r="F19">
-        <v>338003017.5407855</v>
+        <v>327382662.1386127</v>
       </c>
       <c r="G19">
         <v>59355704.97992887</v>
       </c>
       <c r="H19">
-        <v>1030403142.468819</v>
+        <v>1019782787.066646</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1866,13 +1866,13 @@
         <v>2516398802.564066</v>
       </c>
       <c r="F20">
-        <v>855012444.083251</v>
+        <v>824197020.4988503</v>
       </c>
       <c r="G20">
         <v>9641852692.369627</v>
       </c>
       <c r="H20">
-        <v>13013263939.01694</v>
+        <v>12982448515.43254</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1892,13 +1892,13 @@
         <v>83491901.96373385</v>
       </c>
       <c r="F21">
-        <v>22939957.87032044</v>
+        <v>22217917.88043116</v>
       </c>
       <c r="G21">
         <v>191473000.915585</v>
       </c>
       <c r="H21">
-        <v>297904860.7496393</v>
+        <v>297182820.75975</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1918,13 +1918,13 @@
         <v>1857099375.036562</v>
       </c>
       <c r="F22">
-        <v>1023492506.737318</v>
+        <v>991358622.2848264</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5768857797.018673</v>
+        <v>5736723912.566181</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1944,13 +1944,13 @@
         <v>2282298634.158896</v>
       </c>
       <c r="F23">
-        <v>1091827391.990392</v>
+        <v>1057548044.535151</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5918837295.594751</v>
+        <v>5884557948.13951</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1970,13 +1970,13 @@
         <v>833955390.4606309</v>
       </c>
       <c r="F24">
-        <v>575239362.539309</v>
+        <v>557178971.1962514</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1409194752.99994</v>
+        <v>1391134361.656882</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1996,13 +1996,13 @@
         <v>28649521.54881392</v>
       </c>
       <c r="F25">
-        <v>13263429.29176725</v>
+        <v>12846950.41873629</v>
       </c>
       <c r="G25">
         <v>10305562.00060773</v>
       </c>
       <c r="H25">
-        <v>52218512.84118889</v>
+        <v>51802033.96815793</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2022,13 +2022,13 @@
         <v>471005851.4073288</v>
       </c>
       <c r="F26">
-        <v>242345823.7361553</v>
+        <v>234737059.9726507</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1049609080.143288</v>
+        <v>1042000316.379783</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2048,13 +2048,13 @@
         <v>441217687.692047</v>
       </c>
       <c r="F27">
-        <v>237831746.9501765</v>
+        <v>230277461.6769986</v>
       </c>
       <c r="G27">
         <v>878043097.4883262</v>
       </c>
       <c r="H27">
-        <v>1557092532.13055</v>
+        <v>1549538246.857372</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2074,13 +2074,13 @@
         <v>2052501648.438598</v>
       </c>
       <c r="F28">
-        <v>867220172.4753467</v>
+        <v>839992662.1284199</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3232139812.723118</v>
+        <v>3204912302.376191</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2100,13 +2100,13 @@
         <v>2051102605.030719</v>
       </c>
       <c r="F29">
-        <v>1009110371.276579</v>
+        <v>986504304.1068023</v>
       </c>
       <c r="G29">
-        <v>3545269721.874162</v>
+        <v>2794049778.235027</v>
       </c>
       <c r="H29">
-        <v>6605482698.18146</v>
+        <v>5831656687.372548</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2126,13 +2126,13 @@
         <v>257963367.4755389</v>
       </c>
       <c r="F30">
-        <v>161649716.3905016</v>
+        <v>156574512.347407</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>419613083.8660406</v>
+        <v>414537879.8229458</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2152,13 +2152,13 @@
         <v>345218384.9257442</v>
       </c>
       <c r="F31">
-        <v>140487441.3256547</v>
+        <v>136076654.5569506</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1107146192.008635</v>
+        <v>1102735405.239931</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2178,13 +2178,13 @@
         <v>254585358.2257589</v>
       </c>
       <c r="F32">
-        <v>127588491.7079886</v>
+        <v>123582684.3151413</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>589322516.8846688</v>
+        <v>585316709.4918215</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2204,13 +2204,13 @@
         <v>266519736.5687547</v>
       </c>
       <c r="F33">
-        <v>150165669.7861556</v>
+        <v>145451022.3902292</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>496021907.2245054</v>
+        <v>491307259.8285789</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2230,13 +2230,13 @@
         <v>237144195.1620441</v>
       </c>
       <c r="F34">
-        <v>106644878.8852413</v>
+        <v>103296623.5800095</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>530840384.7032852</v>
+        <v>527492129.3980533</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2256,13 +2256,13 @@
         <v>4447020158.951205</v>
       </c>
       <c r="F35">
-        <v>2093052249.970279</v>
+        <v>2025067872.511581</v>
       </c>
       <c r="G35">
         <v>2434061713.271325</v>
       </c>
       <c r="H35">
-        <v>8974134122.192808</v>
+        <v>8906149744.73411</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2282,13 +2282,13 @@
         <v>39063814.26649461</v>
       </c>
       <c r="F36">
-        <v>19600189.23883716</v>
+        <v>18984740.92116081</v>
       </c>
       <c r="G36">
         <v>9279826.717678081</v>
       </c>
       <c r="H36">
-        <v>67943830.22300985</v>
+        <v>67328381.9053335</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2308,13 +2308,13 @@
         <v>613676347.0891225</v>
       </c>
       <c r="F37">
-        <v>248199529.7372397</v>
+        <v>239787243.0800302</v>
       </c>
       <c r="G37">
         <v>5597565526.542176</v>
       </c>
       <c r="H37">
-        <v>6459441403.368539</v>
+        <v>6451029116.711329</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2334,13 +2334,13 @@
         <v>1634250189.545961</v>
       </c>
       <c r="F38">
-        <v>901981960.5753518</v>
+        <v>873663058.4743921</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4265197730.619432</v>
+        <v>4236878828.518472</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2360,13 +2360,13 @@
         <v>738623387.9985666</v>
       </c>
       <c r="F39">
-        <v>350778382.7368186</v>
+        <v>339513805.722434</v>
       </c>
       <c r="G39">
         <v>1692632563.513638</v>
       </c>
       <c r="H39">
-        <v>2782034334.249023</v>
+        <v>2770769757.234639</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2386,13 +2386,13 @@
         <v>3449291408.407538</v>
       </c>
       <c r="F40">
-        <v>1410066688.574506</v>
+        <v>1365795802.620097</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>6562071932.235925</v>
+        <v>6517801046.281515</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2412,13 +2412,13 @@
         <v>7863929095.322391</v>
       </c>
       <c r="F41">
-        <v>3385037439.362368</v>
+        <v>3337787153.620518</v>
       </c>
       <c r="G41">
-        <v>6676807406.51448</v>
+        <v>5357329826.110817</v>
       </c>
       <c r="H41">
-        <v>17925773941.19924</v>
+        <v>16559046075.05373</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2438,13 +2438,13 @@
         <v>9102014262.611</v>
       </c>
       <c r="F42">
-        <v>8704801869.40559</v>
+        <v>8431503241.802544</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>98132332062.84138</v>
+        <v>97859033435.23834</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2464,13 +2464,13 @@
         <v>492602445.6173807</v>
       </c>
       <c r="F43">
-        <v>265121382.161413</v>
+        <v>256792008.441836</v>
       </c>
       <c r="G43">
-        <v>51134769.7697766</v>
+        <v>51116495.87446512</v>
       </c>
       <c r="H43">
-        <v>808858597.5485703</v>
+        <v>800510949.9336818</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2490,13 +2490,13 @@
         <v>20750016.65569938</v>
       </c>
       <c r="F44">
-        <v>9899917.850455197</v>
+        <v>9588826.245945809</v>
       </c>
       <c r="G44">
-        <v>66493714.7212683</v>
+        <v>66493714.47059705</v>
       </c>
       <c r="H44">
-        <v>97143649.22742289</v>
+        <v>96832557.37224224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2516,13 +2516,13 @@
         <v>270865352.4732174</v>
       </c>
       <c r="F45">
-        <v>152337652.4641592</v>
+        <v>147529331.0965973</v>
       </c>
       <c r="G45">
-        <v>404266391.8357226</v>
+        <v>404247035.7888408</v>
       </c>
       <c r="H45">
-        <v>827469396.7730992</v>
+        <v>822641719.3586556</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2542,13 +2542,13 @@
         <v>5745006.468457608</v>
       </c>
       <c r="F46">
-        <v>2102158.675537105</v>
+        <v>2036157.390249291</v>
       </c>
       <c r="G46">
-        <v>1483988.375716535</v>
+        <v>1483458.046777079</v>
       </c>
       <c r="H46">
-        <v>9331153.519711247</v>
+        <v>9264621.905483978</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2568,13 +2568,13 @@
         <v>136471256.4860738</v>
       </c>
       <c r="F47">
-        <v>52222338.13605036</v>
+        <v>50581431.02404738</v>
       </c>
       <c r="G47">
-        <v>62043789.49551046</v>
+        <v>62021617.07312403</v>
       </c>
       <c r="H47">
-        <v>250737384.1176346</v>
+        <v>249074304.5832452</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2594,13 +2594,13 @@
         <v>15458689.46351307</v>
       </c>
       <c r="F48">
-        <v>7328890.678066318</v>
+        <v>7098483.363879343</v>
       </c>
       <c r="G48">
-        <v>101876879.8167534</v>
+        <v>101876860.7783573</v>
       </c>
       <c r="H48">
-        <v>124664459.9583328</v>
+        <v>124434033.6057497</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2620,13 +2620,13 @@
         <v>866830602.974481</v>
       </c>
       <c r="F49">
-        <v>436135277.2482722</v>
+        <v>421964889.4716603</v>
       </c>
       <c r="G49">
-        <v>2550040783.3446</v>
+        <v>2550022170.323466</v>
       </c>
       <c r="H49">
-        <v>3853006663.567353</v>
+        <v>3838817662.769608</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2646,13 +2646,13 @@
         <v>549717580.1557679</v>
       </c>
       <c r="F50">
-        <v>208447779.2545552</v>
+        <v>201899286.06015</v>
       </c>
       <c r="G50">
-        <v>47038282.47059087</v>
+        <v>47021472.52594128</v>
       </c>
       <c r="H50">
-        <v>805203641.880914</v>
+        <v>798638338.7418591</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2672,13 +2672,13 @@
         <v>195139730.0405185</v>
       </c>
       <c r="F51">
-        <v>98917957.88055968</v>
+        <v>95811907.22912565</v>
       </c>
       <c r="G51">
-        <v>9737890.766439175</v>
+        <v>9734410.762574451</v>
       </c>
       <c r="H51">
-        <v>303795578.6875174</v>
+        <v>300686048.0322186</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2698,13 +2698,13 @@
         <v>481372994.9710348</v>
       </c>
       <c r="F52">
-        <v>203473189.5396301</v>
+        <v>195675181.9832876</v>
       </c>
       <c r="G52">
-        <v>13741858131.94767</v>
+        <v>13741840017.66749</v>
       </c>
       <c r="H52">
-        <v>14426704316.45834</v>
+        <v>14418888194.62181</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2724,13 +2724,13 @@
         <v>317660568.6451865</v>
       </c>
       <c r="F53">
-        <v>192660381.2101066</v>
+        <v>186603019.2970576</v>
       </c>
       <c r="G53">
-        <v>108496687.9290811</v>
+        <v>108457914.7591659</v>
       </c>
       <c r="H53">
-        <v>618817637.7843742</v>
+        <v>612721502.7014101</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2750,13 +2750,13 @@
         <v>102779379.9859059</v>
       </c>
       <c r="F54">
-        <v>37017008.2015154</v>
+        <v>35850227.0611441</v>
       </c>
       <c r="G54">
-        <v>300123663.3703728</v>
+        <v>300118992.9444585</v>
       </c>
       <c r="H54">
-        <v>439920051.557794</v>
+        <v>438748599.9915084</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2776,13 +2776,13 @@
         <v>972746089.3588214</v>
       </c>
       <c r="F55">
-        <v>481929845.8714121</v>
+        <v>466578494.7680243</v>
       </c>
       <c r="G55">
-        <v>1088428544.211218</v>
+        <v>1088362385.337194</v>
       </c>
       <c r="H55">
-        <v>2543104479.441451</v>
+        <v>2527686969.46404</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2802,13 +2802,13 @@
         <v>252578.8191649556</v>
       </c>
       <c r="F56">
-        <v>142407.0529899129</v>
+        <v>137935.3837223993</v>
       </c>
       <c r="G56">
-        <v>10489977.88081795</v>
+        <v>10489949.33189621</v>
       </c>
       <c r="H56">
-        <v>10884963.75297282</v>
+        <v>10880463.53478356</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2828,13 +2828,13 @@
         <v>1411810.425073596</v>
       </c>
       <c r="F57">
-        <v>360150.263835357</v>
+        <v>348841.6268815561</v>
       </c>
       <c r="G57">
-        <v>8519329.996454401</v>
+        <v>8516813.570048077</v>
       </c>
       <c r="H57">
-        <v>10291290.68536335</v>
+        <v>10277465.62200323</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2854,13 +2854,13 @@
         <v>172984.6281402737</v>
       </c>
       <c r="F58">
-        <v>44131.55634095547</v>
+        <v>42745.94376306365</v>
       </c>
       <c r="G58">
-        <v>2470669.131517102</v>
+        <v>2470512.830837915</v>
       </c>
       <c r="H58">
-        <v>2687785.315998332</v>
+        <v>2686243.402741252</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2880,13 +2880,13 @@
         <v>3015072.988460034</v>
       </c>
       <c r="F59">
-        <v>1172597.284296758</v>
+        <v>1135775.663008845</v>
       </c>
       <c r="G59">
-        <v>13323044.75763661</v>
+        <v>13321591.59746589</v>
       </c>
       <c r="H59">
-        <v>17510715.03039341</v>
+        <v>17472440.24893476</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2906,13 +2906,13 @@
         <v>47101821.02513392</v>
       </c>
       <c r="F60">
-        <v>16633140.13807084</v>
+        <v>16110473.15276606</v>
       </c>
       <c r="G60">
-        <v>66030320.23554397</v>
+        <v>66012118.9780366</v>
       </c>
       <c r="H60">
-        <v>129765281.3987487</v>
+        <v>129224413.1559366</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2932,13 +2932,13 @@
         <v>25850362.76009041</v>
       </c>
       <c r="F61">
-        <v>13517059.80450216</v>
+        <v>13090757.68434075</v>
       </c>
       <c r="G61">
-        <v>343800205.1891174</v>
+        <v>343788296.1630055</v>
       </c>
       <c r="H61">
-        <v>383167627.7537099</v>
+        <v>382729416.6074367</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2958,13 +2958,13 @@
         <v>23446494.13562497</v>
       </c>
       <c r="F62">
-        <v>5960828.099214554</v>
+        <v>5773641.381424381</v>
       </c>
       <c r="G62">
-        <v>15891067.76481399</v>
+        <v>15888519.88940094</v>
       </c>
       <c r="H62">
-        <v>45298389.99965351</v>
+        <v>45108655.40645029</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2984,13 +2984,13 @@
         <v>1271869.761008371</v>
       </c>
       <c r="F63">
-        <v>302557.8786162703</v>
+        <v>293058.1468450783</v>
       </c>
       <c r="G63">
-        <v>4280465.6774275</v>
+        <v>4280403.623361159</v>
       </c>
       <c r="H63">
-        <v>5854893.317052142</v>
+        <v>5845331.531214608</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3010,13 +3010,13 @@
         <v>87589401.95926829</v>
       </c>
       <c r="F64">
-        <v>32217295.18432449</v>
+        <v>31133977.30069147</v>
       </c>
       <c r="G64">
-        <v>5116362315.559353</v>
+        <v>5114535681.251254</v>
       </c>
       <c r="H64">
-        <v>5236169012.702946</v>
+        <v>5233259060.511214</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3036,13 +3036,13 @@
         <v>4036308.642347496</v>
       </c>
       <c r="F65">
-        <v>1398950.456720069</v>
+        <v>1355002.471978465</v>
       </c>
       <c r="G65">
-        <v>45443894.11936453</v>
+        <v>45442348.83725445</v>
       </c>
       <c r="H65">
-        <v>50879153.2184321</v>
+        <v>50833659.95158041</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3062,13 +3062,13 @@
         <v>18280237.64641271</v>
       </c>
       <c r="F66">
-        <v>7620687.465449997</v>
+        <v>7380856.248222979</v>
       </c>
       <c r="G66">
-        <v>183604014.2724906</v>
+        <v>183538400.1991177</v>
       </c>
       <c r="H66">
-        <v>209504939.3843533</v>
+        <v>209199494.0937533</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3088,13 +3088,13 @@
         <v>43148692.15771139</v>
       </c>
       <c r="F67">
-        <v>19785527.80521847</v>
+        <v>19163174.74591804</v>
       </c>
       <c r="G67">
-        <v>143716348.4328093</v>
+        <v>143676303.9259618</v>
       </c>
       <c r="H67">
-        <v>206650568.3957391</v>
+        <v>205988170.8295912</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3114,13 +3114,13 @@
         <v>385395.2985787878</v>
       </c>
       <c r="F68">
-        <v>98322.43343550955</v>
+        <v>95235.40424246121</v>
       </c>
       <c r="G68">
-        <v>1683279.72738721</v>
+        <v>1683230.565806289</v>
       </c>
       <c r="H68">
-        <v>2166997.459401508</v>
+        <v>2163861.268627538</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3140,13 +3140,13 @@
         <v>4515210.828722432</v>
       </c>
       <c r="F69">
-        <v>2168620.984807859</v>
+        <v>2100481.90452628</v>
       </c>
       <c r="G69">
-        <v>59129985.93764398</v>
+        <v>59118161.08621242</v>
       </c>
       <c r="H69">
-        <v>65813817.75117426</v>
+        <v>65733853.81946113</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3166,13 +3166,13 @@
         <v>3332199.02084437</v>
       </c>
       <c r="F70">
-        <v>1204185.851124202</v>
+        <v>1166321.503731181</v>
       </c>
       <c r="G70">
-        <v>116983150.6209837</v>
+        <v>116944665.9609127</v>
       </c>
       <c r="H70">
-        <v>121519535.4929522</v>
+        <v>121443186.4854883</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3192,13 +3192,13 @@
         <v>9812527.503684133</v>
       </c>
       <c r="F71">
-        <v>8727732.710974298</v>
+        <v>8452565.435755314</v>
       </c>
       <c r="G71">
-        <v>319031677.9054476</v>
+        <v>319029122.9264826</v>
       </c>
       <c r="H71">
-        <v>337571938.120106</v>
+        <v>337294215.865922</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3218,13 +3218,13 @@
         <v>7334427.897564096</v>
       </c>
       <c r="F72">
-        <v>3764418.92777571</v>
+        <v>3646088.765444752</v>
       </c>
       <c r="G72">
-        <v>91614940.84586345</v>
+        <v>91603526.53325003</v>
       </c>
       <c r="H72">
-        <v>102713787.6712033</v>
+        <v>102584043.1962589</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3244,13 +3244,13 @@
         <v>555868100.1761395</v>
       </c>
       <c r="F73">
-        <v>167138252.5770245</v>
+        <v>161869231.9809679</v>
       </c>
       <c r="G73">
-        <v>311653989.1548843</v>
+        <v>311622536.113804</v>
       </c>
       <c r="H73">
-        <v>1034660341.908048</v>
+        <v>1029359868.270911</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3270,13 +3270,13 @@
         <v>41904132.569398</v>
       </c>
       <c r="F74">
-        <v>21707095.7156075</v>
+        <v>21024764.32786636</v>
       </c>
       <c r="G74">
-        <v>90894835.83601874</v>
+        <v>90883514.06905395</v>
       </c>
       <c r="H74">
-        <v>154506064.1210243</v>
+        <v>153812410.9663183</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3296,13 +3296,13 @@
         <v>2311513.394024289</v>
       </c>
       <c r="F75">
-        <v>941378.2248793778</v>
+        <v>911807.9141181485</v>
       </c>
       <c r="G75">
-        <v>37902851.62788891</v>
+        <v>37890221.48572738</v>
       </c>
       <c r="H75">
-        <v>41155743.24679258</v>
+        <v>41113542.79386982</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3322,13 +3322,13 @@
         <v>11550850.78064208</v>
       </c>
       <c r="F76">
-        <v>8206093.62538895</v>
+        <v>7948380.664287047</v>
       </c>
       <c r="G76">
-        <v>21326042.68023859</v>
+        <v>21326016.74573309</v>
       </c>
       <c r="H76">
-        <v>41082987.08626962</v>
+        <v>40825248.19066221</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3348,13 +3348,13 @@
         <v>841861.960565038</v>
       </c>
       <c r="F77">
-        <v>214770.1312401328</v>
+        <v>208026.7897779399</v>
       </c>
       <c r="G77">
-        <v>4007598.521729974</v>
+        <v>4007223.900386709</v>
       </c>
       <c r="H77">
-        <v>5064230.613535144</v>
+        <v>5057112.650729687</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3374,13 +3374,13 @@
         <v>8237614.028295259</v>
       </c>
       <c r="F78">
-        <v>3288896.284253344</v>
+        <v>3185489.479948476</v>
       </c>
       <c r="G78">
-        <v>110257538.0644776</v>
+        <v>110220356.2290857</v>
       </c>
       <c r="H78">
-        <v>121784048.3770262</v>
+        <v>121643459.7373295</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3400,13 +3400,13 @@
         <v>12691.41623684967</v>
       </c>
       <c r="F79">
-        <v>2791.568625756031</v>
+        <v>2703.916927658114</v>
       </c>
       <c r="G79">
-        <v>5944340.569893491</v>
+        <v>5942579.409210103</v>
       </c>
       <c r="H79">
-        <v>5959823.554756097</v>
+        <v>5957974.74237461</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3426,13 +3426,13 @@
         <v>1320187.939678914</v>
       </c>
       <c r="F80">
-        <v>441239.4834688611</v>
+        <v>427385.9180049872</v>
       </c>
       <c r="G80">
-        <v>1519101.873584513</v>
+        <v>1519101.778209312</v>
       </c>
       <c r="H80">
-        <v>3280529.296732289</v>
+        <v>3266675.635893214</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3452,13 +3452,13 @@
         <v>1979034.195368866</v>
       </c>
       <c r="F81">
-        <v>607822.4076357457</v>
+        <v>588738.4145080893</v>
       </c>
       <c r="G81">
-        <v>2460691.842993848</v>
+        <v>2460690.563436268</v>
       </c>
       <c r="H81">
-        <v>5047548.445998459</v>
+        <v>5028463.173313223</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3478,13 +3478,13 @@
         <v>853219.7845943433</v>
       </c>
       <c r="F82">
-        <v>202306.1819596086</v>
+        <v>195954.3611321081</v>
       </c>
       <c r="G82">
-        <v>1855395.710843083</v>
+        <v>1855285.731581016</v>
       </c>
       <c r="H82">
-        <v>2910921.677397035</v>
+        <v>2904459.877307468</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3504,13 +3504,13 @@
         <v>222971.2219657671</v>
       </c>
       <c r="F83">
-        <v>48912.80157208385</v>
+        <v>47377.04886032941</v>
       </c>
       <c r="G83">
-        <v>3553349.449587556</v>
+        <v>3553334.017250616</v>
       </c>
       <c r="H83">
-        <v>3825233.473125407</v>
+        <v>3823682.288076713</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3530,13 +3530,13 @@
         <v>161400172.9992169</v>
       </c>
       <c r="F84">
-        <v>62161071.0340987</v>
+        <v>60200583.91599181</v>
       </c>
       <c r="G84">
-        <v>345565885.7529492</v>
+        <v>345543534.18533</v>
       </c>
       <c r="H84">
-        <v>569127129.7862649</v>
+        <v>567144291.1005387</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3556,13 +3556,13 @@
         <v>203619776.1021106</v>
       </c>
       <c r="F85">
-        <v>72058586.2290099</v>
+        <v>69771601.80462152</v>
       </c>
       <c r="G85">
-        <v>821101722.126004</v>
+        <v>821100925.9483874</v>
       </c>
       <c r="H85">
-        <v>1096780084.457124</v>
+        <v>1094492303.855119</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3605,13 +3605,13 @@
         <v>309677.9756767213</v>
       </c>
       <c r="F87">
-        <v>108943.3866896249</v>
+        <v>105522.9667288504</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>418621.3623663462</v>
+        <v>415200.9424055716</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3628,13 +3628,13 @@
         <v>13338529.56328148</v>
       </c>
       <c r="F88">
-        <v>7826485.065811849</v>
+        <v>7580762.341787554</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>21165014.62909333</v>
+        <v>20919291.90506904</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3651,13 +3651,13 @@
         <v>2048213.215728256</v>
       </c>
       <c r="F89">
-        <v>890230.3893256132</v>
+        <v>862280.4431575874</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2938443.605053869</v>
+        <v>2910493.658885843</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3697,13 +3697,13 @@
         <v>652103502.0032791</v>
       </c>
       <c r="F91">
-        <v>310448019.0187996</v>
+        <v>300701097.8581786</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>962551521.0220788</v>
+        <v>952804599.8614577</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3720,13 +3720,13 @@
         <v>410318.199336529</v>
       </c>
       <c r="F92">
-        <v>178658.743250863</v>
+        <v>173049.5185870189</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>588976.9425873919</v>
+        <v>583367.7179235478</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3743,13 +3743,13 @@
         <v>10823091.05211881</v>
       </c>
       <c r="F93">
-        <v>5321715.04326757</v>
+        <v>5154632.846608816</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>16144806.09538638</v>
+        <v>15977723.89872762</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3766,13 +3766,13 @@
         <v>455795.5185645578</v>
       </c>
       <c r="F94">
-        <v>337537.918348307</v>
+        <v>326940.4744050044</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>793333.4369128647</v>
+        <v>782735.9929695621</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3789,13 +3789,13 @@
         <v>4075724.789381173</v>
       </c>
       <c r="F95">
-        <v>3794240.437054853</v>
+        <v>3675115.301319411</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>7869965.226436026</v>
+        <v>7750840.090700584</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3812,13 +3812,13 @@
         <v>20059555.98243192</v>
       </c>
       <c r="F96">
-        <v>12498758.99082691</v>
+        <v>12106344.12255289</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>32558314.97325883</v>
+        <v>32165900.10498481</v>
       </c>
     </row>
     <row r="97" spans="2:8">
@@ -3835,13 +3835,13 @@
         <v>64832197.40004884</v>
       </c>
       <c r="F97">
-        <v>33251550.4812967</v>
+        <v>32207574.61044412</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>98083747.88134554</v>
+        <v>97039772.01049297</v>
       </c>
     </row>
     <row r="98" spans="2:8">
@@ -3858,13 +3858,13 @@
         <v>11906119.67261926</v>
       </c>
       <c r="F98">
-        <v>4637239.827938825</v>
+        <v>4491647.624939217</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>16543359.50055809</v>
+        <v>16397767.29755848</v>
       </c>
     </row>
     <row r="99" spans="2:8">
@@ -3881,13 +3881,13 @@
         <v>4489030.489859468</v>
       </c>
       <c r="F99">
-        <v>3062898.180186274</v>
+        <v>2966734.490111391</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>7551928.670045742</v>
+        <v>7455764.979970859</v>
       </c>
     </row>
     <row r="100" spans="2:8">
@@ -3904,13 +3904,13 @@
         <v>21993476.85496648</v>
       </c>
       <c r="F100">
-        <v>7704800.138727438</v>
+        <v>7462897.871971565</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>29698276.99369391</v>
+        <v>29456374.72693804</v>
       </c>
     </row>
     <row r="101" spans="2:8">
@@ -3927,13 +3927,13 @@
         <v>2774690.768235301</v>
       </c>
       <c r="F101">
-        <v>1388409.37297942</v>
+        <v>1344818.446743624</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>4163100.141214721</v>
+        <v>4119509.214978925</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -3950,13 +3950,13 @@
         <v>29501.33389342223</v>
       </c>
       <c r="F102">
-        <v>93282.69170744</v>
+        <v>90353.95972649001</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>122784.0256008622</v>
+        <v>119855.2936199122</v>
       </c>
     </row>
     <row r="103" spans="2:8">
@@ -3973,13 +3973,13 @@
         <v>6259470.236905301</v>
       </c>
       <c r="F103">
-        <v>2657604.149781351</v>
+        <v>2574165.195311846</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>8917074.386686653</v>
+        <v>8833635.432217147</v>
       </c>
     </row>
     <row r="104" spans="2:8">
@@ -3996,13 +3996,13 @@
         <v>48936.51494834634</v>
       </c>
       <c r="F104">
-        <v>8618.317782085369</v>
+        <v>8347.734435396089</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>57554.83273043171</v>
+        <v>57284.24938374243</v>
       </c>
     </row>
     <row r="105" spans="2:8">
@@ -4019,13 +4019,13 @@
         <v>13164771.2287405</v>
       </c>
       <c r="F105">
-        <v>13604495.51531073</v>
+        <v>13177364.60419441</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>26769266.74405123</v>
+        <v>26342135.83293491</v>
       </c>
     </row>
     <row r="106" spans="2:8">
@@ -4042,13 +4042,13 @@
         <v>5605253.407374483</v>
       </c>
       <c r="F106">
-        <v>6166527.149988586</v>
+        <v>5972920.97348363</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>11771780.55736307</v>
+        <v>11578174.38085811</v>
       </c>
     </row>
     <row r="107" spans="2:8">
@@ -4065,13 +4065,13 @@
         <v>1377709.228179929</v>
       </c>
       <c r="F107">
-        <v>963840.7716883847</v>
+        <v>933579.7313933591</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>2341549.999868314</v>
+        <v>2311288.959573288</v>
       </c>
     </row>
     <row r="108" spans="2:8">
@@ -4088,13 +4088,13 @@
         <v>2647185.120806928</v>
       </c>
       <c r="F108">
-        <v>2532515.924548015</v>
+        <v>2453004.278338761</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>5179701.045354943</v>
+        <v>5100189.399145689</v>
       </c>
     </row>
     <row r="109" spans="2:8">
@@ -4111,13 +4111,13 @@
         <v>6281.63899602814</v>
       </c>
       <c r="F109">
-        <v>1302.204953003756</v>
+        <v>1261.320527160056</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>7583.843949031896</v>
+        <v>7542.959523188196</v>
       </c>
     </row>
     <row r="110" spans="2:8">
@@ -4134,13 +4134,13 @@
         <v>46959.29950828897</v>
       </c>
       <c r="F110">
-        <v>61466.06932791398</v>
+        <v>59536.26177531317</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>108425.3688362029</v>
+        <v>106495.5612836021</v>
       </c>
     </row>
     <row r="111" spans="2:8">
@@ -4157,13 +4157,13 @@
         <v>762387.3223362543</v>
       </c>
       <c r="F111">
-        <v>431532.3746377268</v>
+        <v>417983.8519344952</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1193919.696973981</v>
+        <v>1180371.17427075</v>
       </c>
     </row>
     <row r="112" spans="2:8">
@@ -4180,13 +4180,13 @@
         <v>507706.4866029253</v>
       </c>
       <c r="F112">
-        <v>286290.4777879775</v>
+        <v>277302.0141963739</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>793996.9643909028</v>
+        <v>785008.5007992992</v>
       </c>
     </row>
     <row r="113" spans="2:8">
@@ -4203,13 +4203,13 @@
         <v>209618.5849123106</v>
       </c>
       <c r="F113">
-        <v>274374.4180077692</v>
+        <v>265760.0746814198</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>483993.0029200799</v>
+        <v>475378.6595937305</v>
       </c>
     </row>
     <row r="114" spans="2:8">
@@ -4226,13 +4226,13 @@
         <v>35954.3527380446</v>
       </c>
       <c r="F114">
-        <v>9172.912430841316</v>
+        <v>8884.916860570738</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>45127.26516888592</v>
+        <v>44839.26959861534</v>
       </c>
     </row>
     <row r="115" spans="2:8">
@@ -4249,13 +4249,13 @@
         <v>46496841.01777743</v>
       </c>
       <c r="F115">
-        <v>21215490.85509372</v>
+        <v>20549402.80144133</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>67712331.87287115</v>
+        <v>67046243.81921875</v>
       </c>
     </row>
     <row r="116" spans="2:8">
@@ -4272,13 +4272,13 @@
         <v>61205236.63242306</v>
       </c>
       <c r="F116">
-        <v>40994085.34030855</v>
+        <v>39707022.47185598</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>102199321.9727316</v>
+        <v>100912259.104279</v>
       </c>
     </row>
     <row r="117" spans="2:8">
@@ -4295,13 +4295,13 @@
         <v>74304016.50914061</v>
       </c>
       <c r="F117">
-        <v>36307507.91063884</v>
+        <v>35167586.2636523</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>110611524.4197794</v>
+        <v>109471602.7727929</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -4318,13 +4318,13 @@
         <v>192983778.9795528</v>
       </c>
       <c r="F118">
-        <v>81861843.11824691</v>
+        <v>79291683.60021064</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>274845622.0977998</v>
+        <v>272275462.5797635</v>
       </c>
     </row>
     <row r="119" spans="2:8">
@@ -4341,13 +4341,13 @@
         <v>13445634.55731628</v>
       </c>
       <c r="F119">
-        <v>7334804.768670797</v>
+        <v>7104518.989960605</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>20780439.32598707</v>
+        <v>20550153.54727688</v>
       </c>
     </row>
     <row r="120" spans="2:8">
@@ -4364,13 +4364,13 @@
         <v>1807310.838061909</v>
       </c>
       <c r="F120">
-        <v>1055710.234947933</v>
+        <v>1022564.832825477</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2863021.073009843</v>
+        <v>2829875.670887386</v>
       </c>
     </row>
     <row r="121" spans="2:8">
@@ -4387,13 +4387,13 @@
         <v>200024.0471387427</v>
       </c>
       <c r="F121">
-        <v>56951.43934897587</v>
+        <v>55163.37450297426</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>256975.4864877186</v>
+        <v>255187.421641717</v>
       </c>
     </row>
     <row r="122" spans="2:8">
@@ -4410,13 +4410,13 @@
         <v>161546.5040446676</v>
       </c>
       <c r="F122">
-        <v>752170.8890646155</v>
+        <v>728555.5012834391</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>913717.3931092831</v>
+        <v>890102.0053281067</v>
       </c>
     </row>
     <row r="123" spans="2:8">
@@ -4433,13 +4433,13 @@
         <v>18003251.37446539</v>
       </c>
       <c r="F123">
-        <v>8911685.445968771</v>
+        <v>8631891.438184006</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>26914936.82043416</v>
+        <v>26635142.81264939</v>
       </c>
     </row>
     <row r="124" spans="2:8">
@@ -4456,13 +4456,13 @@
         <v>4664094.68753172</v>
       </c>
       <c r="F124">
-        <v>5602495.12128105</v>
+        <v>5426597.467231007</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>10266589.80881277</v>
+        <v>10090692.15476273</v>
       </c>
     </row>
     <row r="125" spans="2:8">
@@ -4479,13 +4479,13 @@
         <v>29754991.92507511</v>
       </c>
       <c r="F125">
-        <v>15338962.68214836</v>
+        <v>14857375.90823</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>45093954.60722347</v>
+        <v>44612367.83330511</v>
       </c>
     </row>
     <row r="126" spans="2:8">
@@ -4502,13 +4502,13 @@
         <v>3063398.710762144</v>
       </c>
       <c r="F126">
-        <v>3895685.306311966</v>
+        <v>3773375.176367432</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>6959084.01707411</v>
+        <v>6836773.887129576</v>
       </c>
     </row>
     <row r="127" spans="2:8">
@@ -4525,13 +4525,13 @@
         <v>341924.0482923879</v>
       </c>
       <c r="F127">
-        <v>71947.00617292125</v>
+        <v>69688.13591461978</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>413871.0544653091</v>
+        <v>411612.1842070077</v>
       </c>
     </row>
     <row r="128" spans="2:8">
@@ -4548,13 +4548,13 @@
         <v>134067.8551941284</v>
       </c>
       <c r="F128">
-        <v>67761.55813321333</v>
+        <v>65634.09548444935</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>201829.4133273417</v>
+        <v>199701.9506785778</v>
       </c>
     </row>
     <row r="129" spans="2:8">
@@ -4571,13 +4571,13 @@
         <v>989943.615656864</v>
       </c>
       <c r="F129">
-        <v>1248319.886566165</v>
+        <v>1209127.252784666</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>2238263.502223029</v>
+        <v>2199070.86844153</v>
       </c>
     </row>
     <row r="130" spans="2:8">
@@ -4594,13 +4594,13 @@
         <v>812464.8245072142</v>
       </c>
       <c r="F130">
-        <v>231392.1313120073</v>
+        <v>224127.2730332704</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>1043856.955819221</v>
+        <v>1036592.097540485</v>
       </c>
     </row>
     <row r="131" spans="2:8">
@@ -4617,13 +4617,13 @@
         <v>91798782.90209135</v>
       </c>
       <c r="F131">
-        <v>32854818.63491595</v>
+        <v>31823298.67871473</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>124653601.5370073</v>
+        <v>123622081.5808061</v>
       </c>
     </row>
     <row r="132" spans="2:8">
@@ -4640,13 +4640,13 @@
         <v>4124406.078280312</v>
       </c>
       <c r="F132">
-        <v>2400544.496442166</v>
+        <v>2325176.265640321</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>6524950.574722478</v>
+        <v>6449582.343920633</v>
       </c>
     </row>
     <row r="133" spans="2:8">
@@ -4663,13 +4663,13 @@
         <v>2270653.025382341</v>
       </c>
       <c r="F133">
-        <v>557545.9378259379</v>
+        <v>540041.0546683978</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>2828198.963208279</v>
+        <v>2810694.080050739</v>
       </c>
     </row>
     <row r="134" spans="2:8">
@@ -4686,13 +4686,13 @@
         <v>35678614.55669498</v>
       </c>
       <c r="F134">
-        <v>12998369.52111367</v>
+        <v>12590268.72749501</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>48676984.07780866</v>
+        <v>48268883.28419</v>
       </c>
     </row>
     <row r="135" spans="2:8">
@@ -4709,13 +4709,13 @@
         <v>62782121.13186488</v>
       </c>
       <c r="F135">
-        <v>32062009.97482788</v>
+        <v>31055381.28232278</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>94844131.10669276</v>
+        <v>93837502.41418767</v>
       </c>
     </row>
     <row r="136" spans="2:8">
@@ -4732,13 +4732,13 @@
         <v>1736911.359176302</v>
       </c>
       <c r="F136">
-        <v>443132.3215283194</v>
+        <v>429219.6033370079</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>2180043.680704622</v>
+        <v>2166130.96251331</v>
       </c>
     </row>
     <row r="137" spans="2:8">
@@ -4755,13 +4755,13 @@
         <v>6288508.540973369</v>
       </c>
       <c r="F137">
-        <v>4968190.138849568</v>
+        <v>4812207.318448936</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>11256698.67982294</v>
+        <v>11100715.8594223</v>
       </c>
     </row>
     <row r="138" spans="2:8">
@@ -4778,13 +4778,13 @@
         <v>19439603.38362427</v>
       </c>
       <c r="F138">
-        <v>13372431.10434698</v>
+        <v>12952586.15860741</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>32812034.48797125</v>
+        <v>32392189.54223168</v>
       </c>
     </row>
     <row r="139" spans="2:8">
@@ -4801,13 +4801,13 @@
         <v>19644842.47645807</v>
       </c>
       <c r="F139">
-        <v>5518748.392678604</v>
+        <v>5345480.076588996</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>25163590.86913667</v>
+        <v>24990322.55304706</v>
       </c>
     </row>
     <row r="140" spans="2:8">
@@ -4824,13 +4824,13 @@
         <v>11032632.28788581</v>
       </c>
       <c r="F140">
-        <v>4981295.051247989</v>
+        <v>4824900.785000906</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>16013927.3391338</v>
+        <v>15857533.07288672</v>
       </c>
     </row>
     <row r="141" spans="2:8">
@@ -4847,13 +4847,13 @@
         <v>101710608.0558953</v>
       </c>
       <c r="F141">
-        <v>51314128.95883529</v>
+        <v>49703054.83773607</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>153024737.0147306</v>
+        <v>151413662.8936313</v>
       </c>
     </row>
     <row r="142" spans="2:8">
@@ -4870,13 +4870,13 @@
         <v>22319144.15530176</v>
       </c>
       <c r="F142">
-        <v>11372810.82561653</v>
+        <v>11015746.57105214</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>33691954.98091829</v>
+        <v>33334890.72635389</v>
       </c>
     </row>
     <row r="143" spans="2:8">
@@ -4893,13 +4893,13 @@
         <v>310410.710001296</v>
       </c>
       <c r="F143">
-        <v>672354.9846631704</v>
+        <v>651245.5214809763</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>982765.6946644664</v>
+        <v>961656.2314822723</v>
       </c>
     </row>
     <row r="144" spans="2:8">
@@ -4916,13 +4916,13 @@
         <v>29693206.44762306</v>
       </c>
       <c r="F144">
-        <v>10029103.43810098</v>
+        <v>9714226.632535141</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>39722309.88572404</v>
+        <v>39407433.0801582</v>
       </c>
     </row>
     <row r="145" spans="2:8">
@@ -4939,13 +4939,13 @@
         <v>27119812.62641331</v>
       </c>
       <c r="F145">
-        <v>16012161.82018565</v>
+        <v>15509439.07978702</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>43131974.44659896</v>
+        <v>42629251.70620033</v>
       </c>
     </row>
     <row r="146" spans="2:8">
@@ -4962,13 +4962,13 @@
         <v>2311399.850602151</v>
       </c>
       <c r="F146">
-        <v>5153817.201128754</v>
+        <v>4992006.376584203</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <v>7465217.051730905</v>
+        <v>7303406.227186354</v>
       </c>
     </row>
     <row r="147" spans="2:8">
@@ -4985,13 +4985,13 @@
         <v>1980876.899536129</v>
       </c>
       <c r="F147">
-        <v>6351184.620802436</v>
+        <v>6151780.881744398</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8332061.520338565</v>
+        <v>8132657.781280527</v>
       </c>
     </row>
     <row r="148" spans="2:8">
@@ -5008,13 +5008,13 @@
         <v>44337993.16367842</v>
       </c>
       <c r="F148">
-        <v>18341137.51933876</v>
+        <v>17765293.54403456</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>62679130.68301718</v>
+        <v>62103286.70771297</v>
       </c>
     </row>
     <row r="149" spans="2:8">
@@ -5031,13 +5031,13 @@
         <v>12259008.85177738</v>
       </c>
       <c r="F149">
-        <v>7731618.937321077</v>
+        <v>7488874.659344321</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>19990627.78909846</v>
+        <v>19747883.5111217</v>
       </c>
     </row>
     <row r="150" spans="2:8">
@@ -5054,13 +5054,13 @@
         <v>38128.48512083921</v>
       </c>
       <c r="F150">
-        <v>21606.07216941034</v>
+        <v>20927.72130509648</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>59734.55729024956</v>
+        <v>59056.20642593569</v>
       </c>
     </row>
     <row r="151" spans="2:8">
@@ -5077,13 +5077,13 @@
         <v>968.3197731545542</v>
       </c>
       <c r="F151">
-        <v>247.0441492554018</v>
+        <v>239.2878754238098</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>1215.363922409956</v>
+        <v>1207.607648578364</v>
       </c>
     </row>
     <row r="152" spans="2:8">
@@ -5100,13 +5100,13 @@
         <v>57902517.25659104</v>
       </c>
       <c r="F152">
-        <v>49405093.16799747</v>
+        <v>47853955.71972649</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>107307610.4245885</v>
+        <v>105756472.9763175</v>
       </c>
     </row>
     <row r="153" spans="2:8">
@@ -5123,13 +5123,13 @@
         <v>2815914.886598598</v>
       </c>
       <c r="F153">
-        <v>1286690.979056729</v>
+        <v>1246293.634694262</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
-        <v>4102605.865655326</v>
+        <v>4062208.52129286</v>
       </c>
     </row>
     <row r="154" spans="2:8">
@@ -5146,13 +5146,13 @@
         <v>2246004.906924002</v>
       </c>
       <c r="F154">
-        <v>3000927.49810137</v>
+        <v>2906709.458555875</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154">
-        <v>5246932.405025372</v>
+        <v>5152714.365479877</v>
       </c>
     </row>
     <row r="155" spans="2:8">
@@ -5169,13 +5169,13 @@
         <v>894862.4467256947</v>
       </c>
       <c r="F155">
-        <v>240887.709549414</v>
+        <v>233324.7251858432</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>1135750.156275109</v>
+        <v>1128187.171911538</v>
       </c>
     </row>
     <row r="156" spans="2:8">
@@ -5192,13 +5192,13 @@
         <v>3091826.45850004</v>
       </c>
       <c r="F156">
-        <v>1567928.464180801</v>
+        <v>1518701.301533201</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>4659754.922680842</v>
+        <v>4610527.760033241</v>
       </c>
     </row>
     <row r="157" spans="2:8">
@@ -5215,13 +5215,13 @@
         <v>780461.5631534253</v>
       </c>
       <c r="F157">
-        <v>318627.3967823327</v>
+        <v>308623.6733703846</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <v>1099088.959935758</v>
+        <v>1089085.23652381</v>
       </c>
     </row>
     <row r="158" spans="2:8">
@@ -5238,13 +5238,13 @@
         <v>12898378.63152502</v>
       </c>
       <c r="F158">
-        <v>9491208.608925916</v>
+        <v>9193219.714287147</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>22389587.24045094</v>
+        <v>22091598.34581217</v>
       </c>
     </row>
     <row r="159" spans="2:8">
@@ -5261,13 +5261,13 @@
         <v>1982469.815925033</v>
       </c>
       <c r="F159">
-        <v>983810.6598673359</v>
+        <v>952922.6388420681</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>2966280.475792368</v>
+        <v>2935392.454767101</v>
       </c>
     </row>
     <row r="160" spans="2:8">
@@ -5284,13 +5284,13 @@
         <v>1302204.993814365</v>
       </c>
       <c r="F160">
-        <v>1048092.276474162</v>
+        <v>1015186.05011093</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>2350297.270288527</v>
+        <v>2317391.043925296</v>
       </c>
     </row>
     <row r="161" spans="2:8">
@@ -5307,13 +5307,13 @@
         <v>8457499.948011182</v>
       </c>
       <c r="F161">
-        <v>1778160.69658055</v>
+        <v>1722333.018326188</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>10235660.64459173</v>
+        <v>10179832.96633737</v>
       </c>
     </row>
     <row r="162" spans="2:8">
@@ -5330,13 +5330,13 @@
         <v>8228428.459315038</v>
       </c>
       <c r="F162">
-        <v>4052259.145203835</v>
+        <v>3925033.175021963</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>12280687.60451887</v>
+        <v>12153461.634337</v>
       </c>
     </row>
     <row r="163" spans="2:8">
@@ -5353,13 +5353,13 @@
         <v>256772.6964972269</v>
       </c>
       <c r="F163">
-        <v>142037.7591597434</v>
+        <v>137578.2981371319</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>398810.4556569704</v>
+        <v>394350.9946343589</v>
       </c>
     </row>
     <row r="164" spans="2:8">
@@ -5376,13 +5376,13 @@
         <v>486890.9119195696</v>
       </c>
       <c r="F164">
-        <v>222577.4729411663</v>
+        <v>215589.3623784236</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>709468.3848607359</v>
+        <v>702480.2742979932</v>
       </c>
     </row>
     <row r="165" spans="2:8">
@@ -5399,13 +5399,13 @@
         <v>5136773.59580026</v>
       </c>
       <c r="F165">
-        <v>2531815.241344301</v>
+        <v>2452325.593999678</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>7668588.837144561</v>
+        <v>7589099.189799938</v>
       </c>
     </row>
     <row r="166" spans="2:8">
@@ -5422,13 +5422,13 @@
         <v>3709989.63225573</v>
       </c>
       <c r="F166">
-        <v>4733162.276046774</v>
+        <v>4584558.462465154</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
-        <v>8443151.908302505</v>
+        <v>8294548.094720884</v>
       </c>
     </row>
     <row r="167" spans="2:8">
@@ -5445,13 +5445,13 @@
         <v>426254.4862039582</v>
       </c>
       <c r="F167">
-        <v>967116.4590846596</v>
+        <v>936752.5743041087</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1393370.945288618</v>
+        <v>1363007.060508067</v>
       </c>
     </row>
     <row r="168" spans="2:8">
@@ -5468,13 +5468,13 @@
         <v>58462691.42287081</v>
       </c>
       <c r="F168">
-        <v>25491053.94462804</v>
+        <v>24690729.00171263</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>83953745.36749886</v>
+        <v>83153420.42458344</v>
       </c>
     </row>
     <row r="169" spans="2:8">
@@ -5491,13 +5491,13 @@
         <v>16976486.24140985</v>
       </c>
       <c r="F169">
-        <v>7671073.30749067</v>
+        <v>7430229.938665927</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>24647559.54890051</v>
+        <v>24406716.18007577</v>
       </c>
     </row>
     <row r="170" spans="2:8">
@@ -5514,13 +5514,13 @@
         <v>1035670.923317564</v>
       </c>
       <c r="F170">
-        <v>1831251.033092357</v>
+        <v>1773756.514360137</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
-        <v>2866921.956409921</v>
+        <v>2809427.437677701</v>
       </c>
     </row>
     <row r="171" spans="2:8">
@@ -5537,13 +5537,13 @@
         <v>78014817.97451618</v>
       </c>
       <c r="F171">
-        <v>69052578.59223807</v>
+        <v>66884582.66943152</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>147067396.5667543</v>
+        <v>144899400.6439477</v>
       </c>
     </row>
     <row r="172" spans="2:8">
@@ -5560,13 +5560,13 @@
         <v>83063733.48481357</v>
       </c>
       <c r="F172">
-        <v>68767309.55765294</v>
+        <v>66608270.02889411</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>151831043.0424665</v>
+        <v>149672003.5137077</v>
       </c>
     </row>
     <row r="173" spans="2:8">
@@ -5583,13 +5583,13 @@
         <v>234236357.8686061</v>
       </c>
       <c r="F173">
-        <v>120139124.5862354</v>
+        <v>116367199.8068502</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
-        <v>354375482.4548415</v>
+        <v>350603557.6754563</v>
       </c>
     </row>
     <row r="174" spans="2:8">
@@ -5606,13 +5606,13 @@
         <v>28535011.4998276</v>
       </c>
       <c r="F174">
-        <v>15537660.11194107</v>
+        <v>15049834.97261414</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
-        <v>44072671.61176868</v>
+        <v>43584846.47244175</v>
       </c>
     </row>
     <row r="175" spans="2:8">
@@ -5629,13 +5629,13 @@
         <v>36569946.22918504</v>
       </c>
       <c r="F175">
-        <v>35349986.19392826</v>
+        <v>34240127.1922498</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
-        <v>71919932.4231133</v>
+        <v>70810073.42143485</v>
       </c>
     </row>
     <row r="176" spans="2:8">
@@ -5652,13 +5652,13 @@
         <v>55503907.26224514</v>
       </c>
       <c r="F176">
-        <v>37261279.45118719</v>
+        <v>36091412.90057281</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
-        <v>92765186.71343233</v>
+        <v>91595320.16281796</v>
       </c>
     </row>
     <row r="177" spans="2:8">
@@ -5675,13 +5675,13 @@
         <v>243682054.7107547</v>
       </c>
       <c r="F177">
-        <v>114773162.9283825</v>
+        <v>111169709.5259296</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177">
-        <v>358455217.6391371</v>
+        <v>354851764.2366843</v>
       </c>
     </row>
     <row r="178" spans="2:8">
@@ -5698,13 +5698,13 @@
         <v>4217.056887052578</v>
       </c>
       <c r="F178">
-        <v>1075.883463196878</v>
+        <v>1042.104696217016</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>5292.940350249455</v>
+        <v>5259.161583269593</v>
       </c>
     </row>
     <row r="179" spans="2:8">
@@ -5721,13 +5721,13 @@
         <v>12594451.69708017</v>
       </c>
       <c r="F179">
-        <v>13282872.49927654</v>
+        <v>12865839.36295239</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>25877324.19635671</v>
+        <v>25460291.06003257</v>
       </c>
     </row>
     <row r="180" spans="2:8">
@@ -5744,13 +5744,13 @@
         <v>616431.3299801163</v>
       </c>
       <c r="F180">
-        <v>1392811.542543282</v>
+        <v>1349082.404442549</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>2009242.872523399</v>
+        <v>1965513.734422665</v>
       </c>
     </row>
     <row r="181" spans="2:8">
@@ -5767,13 +5767,13 @@
         <v>9103043.432321528</v>
       </c>
       <c r="F181">
-        <v>4943221.460724561</v>
+        <v>4788022.564595499</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>14046264.89304609</v>
+        <v>13891065.99691703</v>
       </c>
     </row>
     <row r="182" spans="2:8">
@@ -5790,13 +5790,13 @@
         <v>1320223.692176899</v>
       </c>
       <c r="F182">
-        <v>1712477.56013885</v>
+        <v>1658712.089768768</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>3032701.252315749</v>
+        <v>2978935.781945667</v>
       </c>
     </row>
     <row r="183" spans="2:8">
@@ -5813,13 +5813,13 @@
         <v>43395863.88721251</v>
       </c>
       <c r="F183">
-        <v>22589626.55360344</v>
+        <v>21880395.71437393</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <v>65985490.44081594</v>
+        <v>65276259.60158643</v>
       </c>
     </row>
     <row r="184" spans="2:8">
@@ -5836,13 +5836,13 @@
         <v>85754.45098409183</v>
       </c>
       <c r="F184">
-        <v>151846.0206931382</v>
+        <v>147078.6164850914</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>237600.47167723</v>
+        <v>232833.0674691832</v>
       </c>
     </row>
     <row r="185" spans="2:8">
@@ -5859,13 +5859,13 @@
         <v>987824.5161383116</v>
       </c>
       <c r="F185">
-        <v>1932826.917836069</v>
+        <v>1872143.291492383</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185">
-        <v>2920651.43397438</v>
+        <v>2859967.807630695</v>
       </c>
     </row>
     <row r="186" spans="2:8">
@@ -5882,13 +5882,13 @@
         <v>10397314.75519189</v>
       </c>
       <c r="F186">
-        <v>10632928.29714825</v>
+        <v>10299093.62122924</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>21030243.05234013</v>
+        <v>20696408.37642112</v>
       </c>
     </row>
     <row r="187" spans="2:8">
@@ -5905,13 +5905,13 @@
         <v>201743.4861401753</v>
       </c>
       <c r="F187">
-        <v>161429.194203262</v>
+        <v>156360.9137423502</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>363172.6803434372</v>
+        <v>358104.3998825254</v>
       </c>
     </row>
     <row r="188" spans="2:8">
@@ -5928,13 +5928,13 @@
         <v>225751.0627899966</v>
       </c>
       <c r="F188">
-        <v>99590.23761096198</v>
+        <v>96463.4719854974</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
       <c r="H188">
-        <v>325341.3004009586</v>
+        <v>322214.534775494</v>
       </c>
     </row>
     <row r="189" spans="2:8">
@@ -5951,13 +5951,13 @@
         <v>41607333.31809311</v>
       </c>
       <c r="F189">
-        <v>15047706.58856746</v>
+        <v>14575264.18023615</v>
       </c>
       <c r="G189">
         <v>0</v>
       </c>
       <c r="H189">
-        <v>56655039.90666056</v>
+        <v>56182597.49832926</v>
       </c>
     </row>
     <row r="190" spans="2:8">
@@ -5974,13 +5974,13 @@
         <v>66564762.93143262</v>
       </c>
       <c r="F190">
-        <v>27173857.17084259</v>
+        <v>26320698.42204046</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
       <c r="H190">
-        <v>93738620.10227521</v>
+        <v>92885461.35347308</v>
       </c>
     </row>
     <row r="191" spans="2:8">
@@ -5997,13 +5997,13 @@
         <v>55321.25679739968</v>
       </c>
       <c r="F191">
-        <v>9742.748777422941</v>
+        <v>9436.862450554394</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>65064.00557482263</v>
+        <v>64758.11924795408</v>
       </c>
     </row>
     <row r="192" spans="2:8">
@@ -6020,13 +6020,13 @@
         <v>3259939.097323413</v>
       </c>
       <c r="F192">
-        <v>831697.2380921758</v>
+        <v>805585.0166812872</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <v>4091636.335415588</v>
+        <v>4065524.1140047</v>
       </c>
     </row>
     <row r="193" spans="2:8">
@@ -6043,13 +6043,13 @@
         <v>6986438.639313981</v>
       </c>
       <c r="F193">
-        <v>2056838.159437076</v>
+        <v>1992261.038141366</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>9043276.798751056</v>
+        <v>8978699.677455347</v>
       </c>
     </row>
     <row r="194" spans="2:8">
@@ -6066,13 +6066,13 @@
         <v>59620.10430501449</v>
       </c>
       <c r="F194">
-        <v>33784.61725608581</v>
+        <v>32723.90505738151</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>93404.7215611003</v>
+        <v>92344.00936239601</v>
       </c>
     </row>
     <row r="195" spans="2:8">
@@ -6089,13 +6089,13 @@
         <v>653131.978369794</v>
       </c>
       <c r="F195">
-        <v>647686.4845421927</v>
+        <v>627351.5211509453</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>1300818.462911987</v>
+        <v>1280483.499520739</v>
       </c>
     </row>
     <row r="196" spans="2:8">
@@ -6112,13 +6112,13 @@
         <v>1459056.976742219</v>
       </c>
       <c r="F196">
-        <v>1299399.829882265</v>
+        <v>1258603.474543886</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>2758456.806624484</v>
+        <v>2717660.451286105</v>
       </c>
     </row>
     <row r="197" spans="2:8">
@@ -6135,13 +6135,13 @@
         <v>595282149.4836968</v>
       </c>
       <c r="F197">
-        <v>492457269.9912964</v>
+        <v>476995930.5994379</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>1087739419.474993</v>
+        <v>1072278080.083135</v>
       </c>
     </row>
     <row r="198" spans="2:8">
@@ -6158,13 +6158,13 @@
         <v>218232.3392504146</v>
       </c>
       <c r="F198">
-        <v>454632.8623566659</v>
+        <v>440359.0696604737</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198">
-        <v>672865.2016070804</v>
+        <v>658591.4089108882</v>
       </c>
     </row>
     <row r="199" spans="2:8">
@@ -6204,13 +6204,13 @@
         <v>715845.0794559302</v>
       </c>
       <c r="F200">
-        <v>500289.4131620495</v>
+        <v>484582.1734025698</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
       <c r="H200">
-        <v>1216134.49261798</v>
+        <v>1200427.2528585</v>
       </c>
     </row>
     <row r="201" spans="2:8">
@@ -6227,13 +6227,13 @@
         <v>63981835.83728825</v>
       </c>
       <c r="F201">
-        <v>19234387.37441746</v>
+        <v>18630498.65287295</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>83216223.21170571</v>
+        <v>82612334.4901612</v>
       </c>
     </row>
     <row r="202" spans="2:8">
@@ -6250,13 +6250,13 @@
         <v>8929652.939854408</v>
       </c>
       <c r="F202">
-        <v>5810677.41636035</v>
+        <v>5628243.607163986</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>14740330.35621476</v>
+        <v>14557896.54701839</v>
       </c>
     </row>
     <row r="203" spans="2:8">
@@ -6273,13 +6273,13 @@
         <v>434836454.6564474</v>
       </c>
       <c r="F203">
-        <v>295446008.5334973</v>
+        <v>286170095.0923432</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>730282463.1899447</v>
+        <v>721006549.7487906</v>
       </c>
     </row>
     <row r="204" spans="2:8">
@@ -6296,13 +6296,13 @@
         <v>8058117.525265055</v>
       </c>
       <c r="F204">
-        <v>4189498.606646905</v>
+        <v>4057963.824268261</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
       <c r="H204">
-        <v>12247616.13191196</v>
+        <v>12116081.34953332</v>
       </c>
     </row>
     <row r="205" spans="2:8">
@@ -6319,13 +6319,13 @@
         <v>8105057.919669014</v>
       </c>
       <c r="F205">
-        <v>4335886.921596027</v>
+        <v>4199756.086811719</v>
       </c>
       <c r="G205">
         <v>0</v>
       </c>
       <c r="H205">
-        <v>12440944.84126504</v>
+        <v>12304814.00648073</v>
       </c>
     </row>
     <row r="206" spans="2:8">
@@ -6342,13 +6342,13 @@
         <v>138909796.0806043</v>
       </c>
       <c r="F206">
-        <v>66809896.3697217</v>
+        <v>64712312.38537841</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>205719692.450326</v>
+        <v>203622108.4659827</v>
       </c>
     </row>
     <row r="207" spans="2:8">
@@ -6365,13 +6365,13 @@
         <v>138610465.9251496</v>
       </c>
       <c r="F207">
-        <v>43978259.07061739</v>
+        <v>42597504.16904813</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
       <c r="H207">
-        <v>182588724.995767</v>
+        <v>181207970.0941977</v>
       </c>
     </row>
     <row r="208" spans="2:8">
@@ -6388,13 +6388,13 @@
         <v>1586137.216316983</v>
       </c>
       <c r="F208">
-        <v>1232623.93855267</v>
+        <v>1193924.099565972</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>2818761.154869653</v>
+        <v>2780061.315882955</v>
       </c>
     </row>
     <row r="209" spans="2:8">
@@ -6411,13 +6411,13 @@
         <v>37747986.25505243</v>
       </c>
       <c r="F209">
-        <v>21679871.66719664</v>
+        <v>20999203.77122997</v>
       </c>
       <c r="G209">
         <v>0</v>
       </c>
       <c r="H209">
-        <v>59427857.92224906</v>
+        <v>58747190.0262824</v>
       </c>
     </row>
     <row r="210" spans="2:8">
@@ -6434,13 +6434,13 @@
         <v>12026855.12279521</v>
       </c>
       <c r="F210">
-        <v>4458352.974253471</v>
+        <v>4318377.157742826</v>
       </c>
       <c r="G210">
         <v>0</v>
       </c>
       <c r="H210">
-        <v>16485208.09704868</v>
+        <v>16345232.28053804</v>
       </c>
     </row>
     <row r="211" spans="2:8">
@@ -6457,13 +6457,13 @@
         <v>139903927.4660713</v>
       </c>
       <c r="F211">
-        <v>104178101.0803072</v>
+        <v>100907293.4871318</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>244082028.5463785</v>
+        <v>240811220.9532031</v>
       </c>
     </row>
     <row r="212" spans="2:8">
@@ -6480,13 +6480,13 @@
         <v>146805.2794580181</v>
       </c>
       <c r="F212">
-        <v>107016.0128952257</v>
+        <v>103656.1053528599</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212">
-        <v>253821.2923532438</v>
+        <v>250461.3848108781</v>
       </c>
     </row>
     <row r="213" spans="2:8">
@@ -6503,13 +6503,13 @@
         <v>54349.14092132844</v>
       </c>
       <c r="F213">
-        <v>71138.79676150778</v>
+        <v>68905.30129361154</v>
       </c>
       <c r="G213">
         <v>0</v>
       </c>
       <c r="H213">
-        <v>125487.9376828362</v>
+        <v>123254.44221494</v>
       </c>
     </row>
     <row r="214" spans="2:8">
@@ -6526,13 +6526,13 @@
         <v>44326895.36062214</v>
       </c>
       <c r="F214">
-        <v>11304853.7377095</v>
+        <v>10949923.08470658</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>55631749.09833165</v>
+        <v>55276818.44532872</v>
       </c>
     </row>
     <row r="215" spans="2:8">
@@ -6549,13 +6549,13 @@
         <v>206821.8244079214</v>
       </c>
       <c r="F215">
-        <v>117198.6573871076</v>
+        <v>113519.0524171896</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>324020.481795029</v>
+        <v>320340.876825111</v>
       </c>
     </row>
     <row r="216" spans="2:8">
@@ -6572,13 +6572,13 @@
         <v>64556.72410469656</v>
       </c>
       <c r="F216">
-        <v>11369.22733243158</v>
+        <v>11012.27558631759</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>75925.95143712813</v>
+        <v>75568.99969101415</v>
       </c>
     </row>
     <row r="217" spans="2:8">
@@ -6595,13 +6595,13 @@
         <v>7875031.24787792</v>
       </c>
       <c r="F217">
-        <v>7635133.813417242</v>
+        <v>7395418.811964253</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>15510165.06129516</v>
+        <v>15270450.05984217</v>
       </c>
     </row>
     <row r="218" spans="2:8">
@@ -6618,13 +6618,13 @@
         <v>1879878.246333513</v>
       </c>
       <c r="F218">
-        <v>889116.2987430049</v>
+        <v>861201.330904391</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>2768994.545076518</v>
+        <v>2741079.577237905</v>
       </c>
     </row>
     <row r="219" spans="2:8">
